--- a/Elecciones 11 Abril 2021/Resultados Elecciones Histórico/Periodo-Año.xlsx
+++ b/Elecciones 11 Abril 2021/Resultados Elecciones Histórico/Periodo-Año.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-ELECCIONES\Elecciones 11 Abril 2021\Resultados Elecciones Histórico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D3AEA47-AA36-4B1E-AC63-27AB7F423DC0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62418CB5-4106-4D48-BF5F-882A8BC36F94}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{123287BF-BB42-41D2-BAE0-2769DF2FE1F7}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="27">
   <si>
     <t>Periodo</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>2002-2010</t>
+  </si>
+  <si>
+    <t>2010-2018</t>
   </si>
 </sst>
 </file>
@@ -210,8 +213,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5971C0A4-1A48-4743-A9EB-1AD2E209595A}" name="Periodo_Año" displayName="Periodo_Año" ref="E2:F134" totalsRowShown="0">
-  <autoFilter ref="E2:F134" xr:uid="{BD786D08-97FC-4430-835E-FAE56C1A60ED}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5971C0A4-1A48-4743-A9EB-1AD2E209595A}" name="Periodo_Año" displayName="Periodo_Año" ref="E2:F143" totalsRowShown="0">
+  <autoFilter ref="E2:F143" xr:uid="{BD786D08-97FC-4430-835E-FAE56C1A60ED}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{941EEDFF-AAB9-4DBF-8B32-CE2ECC2A7A3A}" name="Período"/>
     <tableColumn id="2" xr3:uid="{DFA2D960-5A1E-4AC2-9EF2-6E0519CFC910}" name="Año"/>
@@ -517,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05F609DA-1FE3-41E4-A42A-C57FFDF6D67F}">
-  <dimension ref="A1:F134"/>
+  <dimension ref="A1:F143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F134"/>
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="I137" sqref="I137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1655,6 +1658,86 @@
       </c>
       <c r="F134">
         <v>2010</v>
+      </c>
+    </row>
+    <row r="135" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E135" t="s">
+        <v>26</v>
+      </c>
+      <c r="F135">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="136" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E136" t="s">
+        <v>26</v>
+      </c>
+      <c r="F136">
+        <f>+F135+1</f>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="137" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E137" t="s">
+        <v>26</v>
+      </c>
+      <c r="F137">
+        <f t="shared" ref="F137:F143" si="0">+F136+1</f>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="138" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E138" t="s">
+        <v>26</v>
+      </c>
+      <c r="F138">
+        <f t="shared" si="0"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="139" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E139" t="s">
+        <v>26</v>
+      </c>
+      <c r="F139">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="140" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E140" t="s">
+        <v>26</v>
+      </c>
+      <c r="F140">
+        <f t="shared" si="0"/>
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="141" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E141" t="s">
+        <v>26</v>
+      </c>
+      <c r="F141">
+        <f t="shared" si="0"/>
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="142" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E142" t="s">
+        <v>26</v>
+      </c>
+      <c r="F142">
+        <f>+F141+1</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="143" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E143" t="s">
+        <v>26</v>
+      </c>
+      <c r="F143">
+        <f t="shared" si="0"/>
+        <v>2018</v>
       </c>
     </row>
   </sheetData>

--- a/Elecciones 11 Abril 2021/Resultados Elecciones Histórico/Periodo-Año.xlsx
+++ b/Elecciones 11 Abril 2021/Resultados Elecciones Histórico/Periodo-Año.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-ELECCIONES\Elecciones 11 Abril 2021\Resultados Elecciones Histórico\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paula\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-ELECCIONES\Elecciones 11 Abril 2021\Resultados Elecciones Histórico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62418CB5-4106-4D48-BF5F-882A8BC36F94}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1709783-8589-4F27-9B63-CCB326B02AAC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{123287BF-BB42-41D2-BAE0-2769DF2FE1F7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{123287BF-BB42-41D2-BAE0-2769DF2FE1F7}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="2" r:id="rId1"/>
@@ -23,15 +23,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -46,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="28">
   <si>
     <t>Periodo</t>
   </si>
@@ -127,6 +118,9 @@
   </si>
   <si>
     <t>2010-2018</t>
+  </si>
+  <si>
+    <t>2018-2026</t>
   </si>
 </sst>
 </file>
@@ -213,8 +207,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5971C0A4-1A48-4743-A9EB-1AD2E209595A}" name="Periodo_Año" displayName="Periodo_Año" ref="E2:F143" totalsRowShown="0">
-  <autoFilter ref="E2:F143" xr:uid="{BD786D08-97FC-4430-835E-FAE56C1A60ED}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5971C0A4-1A48-4743-A9EB-1AD2E209595A}" name="Periodo_Año" displayName="Periodo_Año" ref="E2:F149" totalsRowShown="0">
+  <autoFilter ref="E2:F149" xr:uid="{BD786D08-97FC-4430-835E-FAE56C1A60ED}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{941EEDFF-AAB9-4DBF-8B32-CE2ECC2A7A3A}" name="Período"/>
     <tableColumn id="2" xr3:uid="{DFA2D960-5A1E-4AC2-9EF2-6E0519CFC910}" name="Año"/>
@@ -520,23 +514,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05F609DA-1FE3-41E4-A42A-C57FFDF6D67F}">
-  <dimension ref="A1:F143"/>
+  <dimension ref="A1:F149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="I137" sqref="I137"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="H103" sqref="H103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -547,7 +541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -558,7 +552,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -569,7 +563,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -580,7 +574,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -591,7 +585,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -602,7 +596,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -613,7 +607,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -624,7 +618,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -635,7 +629,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -646,7 +640,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -657,7 +651,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -668,7 +662,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -679,7 +673,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -690,7 +684,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -701,7 +695,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -712,7 +706,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -723,7 +717,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -734,7 +728,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -745,7 +739,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
@@ -756,7 +750,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
         <v>7</v>
       </c>
@@ -764,7 +758,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
         <v>8</v>
       </c>
@@ -772,7 +766,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
         <v>8</v>
       </c>
@@ -780,7 +774,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
         <v>8</v>
       </c>
@@ -788,7 +782,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
         <v>8</v>
       </c>
@@ -796,7 +790,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
         <v>8</v>
       </c>
@@ -804,7 +798,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E28" t="s">
         <v>10</v>
       </c>
@@ -812,7 +806,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
         <v>10</v>
       </c>
@@ -820,7 +814,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
         <v>10</v>
       </c>
@@ -828,7 +822,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
         <v>10</v>
       </c>
@@ -836,7 +830,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
         <v>10</v>
       </c>
@@ -844,7 +838,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
         <v>11</v>
       </c>
@@ -852,7 +846,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="34" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E34" t="s">
         <v>11</v>
       </c>
@@ -860,7 +854,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="35" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E35" t="s">
         <v>11</v>
       </c>
@@ -868,7 +862,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="36" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E36" t="s">
         <v>11</v>
       </c>
@@ -876,7 +870,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="37" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E37" t="s">
         <v>11</v>
       </c>
@@ -884,7 +878,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="38" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E38" t="s">
         <v>12</v>
       </c>
@@ -892,7 +886,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="39" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E39" t="s">
         <v>12</v>
       </c>
@@ -900,7 +894,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="40" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E40" t="s">
         <v>12</v>
       </c>
@@ -908,7 +902,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="41" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E41" t="s">
         <v>12</v>
       </c>
@@ -916,7 +910,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="42" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E42" t="s">
         <v>12</v>
       </c>
@@ -924,7 +918,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="43" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E43" t="s">
         <v>13</v>
       </c>
@@ -932,7 +926,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="44" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E44" t="s">
         <v>13</v>
       </c>
@@ -940,7 +934,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="45" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E45" t="s">
         <v>13</v>
       </c>
@@ -948,7 +942,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="46" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E46" t="s">
         <v>13</v>
       </c>
@@ -956,7 +950,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="47" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E47" t="s">
         <v>13</v>
       </c>
@@ -964,7 +958,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="48" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E48" t="s">
         <v>14</v>
       </c>
@@ -972,7 +966,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="49" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E49" t="s">
         <v>14</v>
       </c>
@@ -980,7 +974,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="50" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E50" t="s">
         <v>14</v>
       </c>
@@ -988,7 +982,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="51" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E51" t="s">
         <v>14</v>
       </c>
@@ -996,7 +990,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="52" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E52" t="s">
         <v>14</v>
       </c>
@@ -1004,7 +998,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="53" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E53" t="s">
         <v>14</v>
       </c>
@@ -1012,7 +1006,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="54" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E54" t="s">
         <v>14</v>
       </c>
@@ -1020,7 +1014,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="55" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E55" t="s">
         <v>14</v>
       </c>
@@ -1028,7 +1022,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="56" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E56" t="s">
         <v>14</v>
       </c>
@@ -1036,7 +1030,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="57" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E57" t="s">
         <v>15</v>
       </c>
@@ -1044,7 +1038,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="58" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E58" t="s">
         <v>15</v>
       </c>
@@ -1052,7 +1046,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="59" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E59" t="s">
         <v>15</v>
       </c>
@@ -1060,7 +1054,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="60" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E60" t="s">
         <v>15</v>
       </c>
@@ -1068,7 +1062,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="61" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E61" t="s">
         <v>15</v>
       </c>
@@ -1076,7 +1070,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="62" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E62" t="s">
         <v>16</v>
       </c>
@@ -1084,7 +1078,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="63" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E63" t="s">
         <v>16</v>
       </c>
@@ -1092,7 +1086,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="64" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E64" t="s">
         <v>16</v>
       </c>
@@ -1100,7 +1094,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="65" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E65" t="s">
         <v>16</v>
       </c>
@@ -1108,7 +1102,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="66" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E66" t="s">
         <v>16</v>
       </c>
@@ -1116,7 +1110,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="67" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E67" t="s">
         <v>17</v>
       </c>
@@ -1124,7 +1118,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="68" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E68" t="s">
         <v>17</v>
       </c>
@@ -1132,7 +1126,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="69" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E69" t="s">
         <v>17</v>
       </c>
@@ -1140,7 +1134,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="70" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E70" t="s">
         <v>17</v>
       </c>
@@ -1148,7 +1142,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="71" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E71" t="s">
         <v>17</v>
       </c>
@@ -1156,7 +1150,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="72" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E72" t="s">
         <v>18</v>
       </c>
@@ -1164,7 +1158,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="73" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E73" t="s">
         <v>18</v>
       </c>
@@ -1172,7 +1166,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="74" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E74" t="s">
         <v>18</v>
       </c>
@@ -1180,7 +1174,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="75" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E75" t="s">
         <v>18</v>
       </c>
@@ -1188,7 +1182,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="76" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E76" t="s">
         <v>18</v>
       </c>
@@ -1196,7 +1190,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="77" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E77" t="s">
         <v>19</v>
       </c>
@@ -1204,7 +1198,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="78" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E78" t="s">
         <v>19</v>
       </c>
@@ -1212,7 +1206,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="79" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E79" t="s">
         <v>19</v>
       </c>
@@ -1220,7 +1214,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="80" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E80" t="s">
         <v>19</v>
       </c>
@@ -1228,7 +1222,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="81" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E81" t="s">
         <v>19</v>
       </c>
@@ -1236,7 +1230,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="82" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E82" t="s">
         <v>19</v>
       </c>
@@ -1244,7 +1238,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="83" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E83" t="s">
         <v>19</v>
       </c>
@@ -1252,7 +1246,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="84" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E84" t="s">
         <v>19</v>
       </c>
@@ -1260,7 +1254,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="85" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E85" t="s">
         <v>19</v>
       </c>
@@ -1268,7 +1262,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="86" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E86" t="s">
         <v>20</v>
       </c>
@@ -1276,7 +1270,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="87" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E87" t="s">
         <v>20</v>
       </c>
@@ -1284,7 +1278,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="88" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E88" t="s">
         <v>20</v>
       </c>
@@ -1292,7 +1286,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="89" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E89" t="s">
         <v>20</v>
       </c>
@@ -1300,7 +1294,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="90" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E90" t="s">
         <v>20</v>
       </c>
@@ -1308,434 +1302,482 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="91" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E91" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F91">
         <v>2018</v>
       </c>
     </row>
-    <row r="92" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E92" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F92">
         <v>2019</v>
       </c>
     </row>
-    <row r="93" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E93" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F93">
         <v>2020</v>
       </c>
     </row>
-    <row r="94" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E94" t="s">
+        <v>27</v>
+      </c>
+      <c r="F94">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="95" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E95" t="s">
+        <v>27</v>
+      </c>
+      <c r="F95">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="96" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E96" t="s">
+        <v>27</v>
+      </c>
+      <c r="F96">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="97" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E97" t="s">
+        <v>27</v>
+      </c>
+      <c r="F97">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="98" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E98" t="s">
+        <v>27</v>
+      </c>
+      <c r="F98">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="99" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E99" t="s">
+        <v>27</v>
+      </c>
+      <c r="F99">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="100" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E100" t="s">
         <v>22</v>
       </c>
-      <c r="F94">
+      <c r="F100">
         <v>2018</v>
       </c>
     </row>
-    <row r="95" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E95" t="s">
+    <row r="101" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E101" t="s">
         <v>22</v>
       </c>
-      <c r="F95">
+      <c r="F101">
         <v>2019</v>
       </c>
     </row>
-    <row r="96" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E96" t="s">
+    <row r="102" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E102" t="s">
         <v>22</v>
       </c>
-      <c r="F96">
+      <c r="F102">
         <v>2020</v>
       </c>
     </row>
-    <row r="97" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E97" t="s">
+    <row r="103" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E103" t="s">
         <v>22</v>
       </c>
-      <c r="F97">
+      <c r="F103">
         <v>2021</v>
       </c>
     </row>
-    <row r="98" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E98" t="s">
+    <row r="104" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E104" t="s">
         <v>22</v>
       </c>
-      <c r="F98">
+      <c r="F104">
         <v>2022</v>
       </c>
     </row>
-    <row r="99" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E99" t="s">
-        <v>9</v>
-      </c>
-      <c r="F99">
-        <v>1998</v>
-      </c>
-    </row>
-    <row r="100" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E100" t="s">
-        <v>9</v>
-      </c>
-      <c r="F100">
-        <v>1999</v>
-      </c>
-    </row>
-    <row r="101" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E101" t="s">
-        <v>9</v>
-      </c>
-      <c r="F101">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="102" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E102" t="s">
-        <v>9</v>
-      </c>
-      <c r="F102">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="103" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E103" t="s">
-        <v>9</v>
-      </c>
-      <c r="F103">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="104" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E104" t="s">
-        <v>9</v>
-      </c>
-      <c r="F104">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="105" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E105" t="s">
         <v>9</v>
       </c>
       <c r="F105">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="106" spans="5:6" x14ac:dyDescent="0.3">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="106" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E106" t="s">
         <v>9</v>
       </c>
       <c r="F106">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="107" spans="5:6" x14ac:dyDescent="0.3">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="107" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E107" t="s">
         <v>9</v>
       </c>
       <c r="F107">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="108" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E108" t="s">
+        <v>9</v>
+      </c>
+      <c r="F108">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="109" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E109" t="s">
+        <v>9</v>
+      </c>
+      <c r="F109">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="110" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E110" t="s">
+        <v>9</v>
+      </c>
+      <c r="F110">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="111" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E111" t="s">
+        <v>9</v>
+      </c>
+      <c r="F111">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="112" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E112" t="s">
+        <v>9</v>
+      </c>
+      <c r="F112">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="113" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E113" t="s">
+        <v>9</v>
+      </c>
+      <c r="F113">
         <v>2006</v>
       </c>
     </row>
-    <row r="108" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E108" t="s">
-        <v>23</v>
-      </c>
-      <c r="F108">
-        <v>1994</v>
-      </c>
-    </row>
-    <row r="109" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E109" t="s">
-        <v>23</v>
-      </c>
-      <c r="F109">
-        <v>1995</v>
-      </c>
-    </row>
-    <row r="110" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E110" t="s">
-        <v>23</v>
-      </c>
-      <c r="F110">
-        <v>1996</v>
-      </c>
-    </row>
-    <row r="111" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E111" t="s">
-        <v>23</v>
-      </c>
-      <c r="F111">
-        <v>1997</v>
-      </c>
-    </row>
-    <row r="112" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E112" t="s">
-        <v>23</v>
-      </c>
-      <c r="F112">
-        <v>1998</v>
-      </c>
-    </row>
-    <row r="113" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E113" t="s">
-        <v>23</v>
-      </c>
-      <c r="F113">
-        <v>1999</v>
-      </c>
-    </row>
-    <row r="114" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E114" t="s">
         <v>23</v>
       </c>
       <c r="F114">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="115" spans="5:6" x14ac:dyDescent="0.3">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="115" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E115" t="s">
         <v>23</v>
       </c>
       <c r="F115">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="116" spans="5:6" x14ac:dyDescent="0.3">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="116" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E116" t="s">
         <v>23</v>
       </c>
       <c r="F116">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="117" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E117" t="s">
+        <v>23</v>
+      </c>
+      <c r="F117">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="118" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E118" t="s">
+        <v>23</v>
+      </c>
+      <c r="F118">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="119" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E119" t="s">
+        <v>23</v>
+      </c>
+      <c r="F119">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="120" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E120" t="s">
+        <v>23</v>
+      </c>
+      <c r="F120">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="121" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E121" t="s">
+        <v>23</v>
+      </c>
+      <c r="F121">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="122" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E122" t="s">
+        <v>23</v>
+      </c>
+      <c r="F122">
         <v>2002</v>
       </c>
     </row>
-    <row r="117" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E117" t="s">
-        <v>24</v>
-      </c>
-      <c r="F117">
-        <v>1990</v>
-      </c>
-    </row>
-    <row r="118" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E118" t="s">
-        <v>24</v>
-      </c>
-      <c r="F118">
-        <v>1991</v>
-      </c>
-    </row>
-    <row r="119" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E119" t="s">
-        <v>24</v>
-      </c>
-      <c r="F119">
-        <v>1992</v>
-      </c>
-    </row>
-    <row r="120" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E120" t="s">
-        <v>24</v>
-      </c>
-      <c r="F120">
-        <v>1993</v>
-      </c>
-    </row>
-    <row r="121" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E121" t="s">
-        <v>24</v>
-      </c>
-      <c r="F121">
-        <v>1994</v>
-      </c>
-    </row>
-    <row r="122" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E122" t="s">
-        <v>24</v>
-      </c>
-      <c r="F122">
-        <v>1995</v>
-      </c>
-    </row>
-    <row r="123" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E123" t="s">
         <v>24</v>
       </c>
       <c r="F123">
-        <v>1996</v>
-      </c>
-    </row>
-    <row r="124" spans="5:6" x14ac:dyDescent="0.3">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="124" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E124" t="s">
         <v>24</v>
       </c>
       <c r="F124">
-        <v>1997</v>
-      </c>
-    </row>
-    <row r="125" spans="5:6" x14ac:dyDescent="0.3">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="125" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E125" t="s">
         <v>24</v>
       </c>
       <c r="F125">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="126" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E126" t="s">
+        <v>24</v>
+      </c>
+      <c r="F126">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="127" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E127" t="s">
+        <v>24</v>
+      </c>
+      <c r="F127">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="128" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E128" t="s">
+        <v>24</v>
+      </c>
+      <c r="F128">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="129" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E129" t="s">
+        <v>24</v>
+      </c>
+      <c r="F129">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="130" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E130" t="s">
+        <v>24</v>
+      </c>
+      <c r="F130">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="131" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E131" t="s">
+        <v>24</v>
+      </c>
+      <c r="F131">
         <v>1998</v>
       </c>
     </row>
-    <row r="126" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E126" t="s">
-        <v>25</v>
-      </c>
-      <c r="F126">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="127" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E127" t="s">
-        <v>25</v>
-      </c>
-      <c r="F127">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="128" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E128" t="s">
-        <v>25</v>
-      </c>
-      <c r="F128">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="129" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E129" t="s">
-        <v>25</v>
-      </c>
-      <c r="F129">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="130" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E130" t="s">
-        <v>25</v>
-      </c>
-      <c r="F130">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="131" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E131" t="s">
-        <v>25</v>
-      </c>
-      <c r="F131">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="132" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E132" t="s">
         <v>25</v>
       </c>
       <c r="F132">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="133" spans="5:6" x14ac:dyDescent="0.3">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="133" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E133" t="s">
         <v>25</v>
       </c>
       <c r="F133">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="134" spans="5:6" x14ac:dyDescent="0.3">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="134" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E134" t="s">
         <v>25</v>
       </c>
       <c r="F134">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="135" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E135" t="s">
+        <v>25</v>
+      </c>
+      <c r="F135">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="136" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E136" t="s">
+        <v>25</v>
+      </c>
+      <c r="F136">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="137" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E137" t="s">
+        <v>25</v>
+      </c>
+      <c r="F137">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="138" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E138" t="s">
+        <v>25</v>
+      </c>
+      <c r="F138">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="139" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E139" t="s">
+        <v>25</v>
+      </c>
+      <c r="F139">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="140" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E140" t="s">
+        <v>25</v>
+      </c>
+      <c r="F140">
         <v>2010</v>
       </c>
     </row>
-    <row r="135" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E135" t="s">
+    <row r="141" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E141" t="s">
         <v>26</v>
       </c>
-      <c r="F135">
+      <c r="F141">
         <v>2010</v>
       </c>
     </row>
-    <row r="136" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E136" t="s">
+    <row r="142" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E142" t="s">
         <v>26</v>
       </c>
-      <c r="F136">
-        <f>+F135+1</f>
+      <c r="F142">
+        <f>+F141+1</f>
         <v>2011</v>
       </c>
     </row>
-    <row r="137" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E137" t="s">
+    <row r="143" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E143" t="s">
         <v>26</v>
       </c>
-      <c r="F137">
-        <f t="shared" ref="F137:F143" si="0">+F136+1</f>
+      <c r="F143">
+        <f t="shared" ref="F143:F149" si="0">+F142+1</f>
         <v>2012</v>
       </c>
     </row>
-    <row r="138" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E138" t="s">
+    <row r="144" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E144" t="s">
         <v>26</v>
       </c>
-      <c r="F138">
+      <c r="F144">
         <f t="shared" si="0"/>
         <v>2013</v>
       </c>
     </row>
-    <row r="139" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E139" t="s">
+    <row r="145" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E145" t="s">
         <v>26</v>
       </c>
-      <c r="F139">
+      <c r="F145">
         <f t="shared" si="0"/>
         <v>2014</v>
       </c>
     </row>
-    <row r="140" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E140" t="s">
+    <row r="146" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E146" t="s">
         <v>26</v>
       </c>
-      <c r="F140">
+      <c r="F146">
         <f t="shared" si="0"/>
         <v>2015</v>
       </c>
     </row>
-    <row r="141" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E141" t="s">
+    <row r="147" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E147" t="s">
         <v>26</v>
       </c>
-      <c r="F141">
+      <c r="F147">
         <f t="shared" si="0"/>
         <v>2016</v>
       </c>
     </row>
-    <row r="142" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E142" t="s">
+    <row r="148" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E148" t="s">
         <v>26</v>
       </c>
-      <c r="F142">
-        <f>+F141+1</f>
+      <c r="F148">
+        <f>+F147+1</f>
         <v>2017</v>
       </c>
     </row>
-    <row r="143" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E143" t="s">
+    <row r="149" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E149" t="s">
         <v>26</v>
       </c>
-      <c r="F143">
+      <c r="F149">
         <f t="shared" si="0"/>
         <v>2018</v>
       </c>
@@ -1758,9 +1800,9 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="5" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>0</v>
       </c>
@@ -1768,7 +1810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F6">
         <v>1990</v>
       </c>

--- a/Elecciones 11 Abril 2021/Resultados Elecciones Histórico/Periodo-Año.xlsx
+++ b/Elecciones 11 Abril 2021/Resultados Elecciones Histórico/Periodo-Año.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paula\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-ELECCIONES\Elecciones 11 Abril 2021\Resultados Elecciones Histórico\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-ELECCIONES\Elecciones 11 Abril 2021\Resultados Elecciones Histórico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1709783-8589-4F27-9B63-CCB326B02AAC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4F9B9A-A12F-4CF6-AF3E-EE2F236BC0F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{123287BF-BB42-41D2-BAE0-2769DF2FE1F7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{123287BF-BB42-41D2-BAE0-2769DF2FE1F7}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="2" r:id="rId1"/>
@@ -23,6 +23,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -516,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05F609DA-1FE3-41E4-A42A-C57FFDF6D67F}">
   <dimension ref="A1:F149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="H103" sqref="H103"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="F106" sqref="F106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
